--- a/mySystem/mySystem/xls/BPVBag/3 SOP-MFG-102-R01A 生产领料记录.xlsx
+++ b/mySystem/mySystem/xls/BPVBag/3 SOP-MFG-102-R01A 生产领料记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\303，CS   2#制袋岗位记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERPsystem\mitcpro\mySystem\mySystem\xls\BPVBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,45 +46,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品代码：</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品批号：</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产指令编号：</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -105,69 +66,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>TY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>膜卷</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>包装袋</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>指示剂</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>内标签</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> SOP-MFG-102-R01A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>XP1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>膜</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -220,12 +127,40 @@
     <t>领取数量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>TY膜卷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XP1膜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装袋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示剂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代码：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品批号：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 生产指令编号：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -277,6 +212,20 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -379,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -399,76 +348,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,7 +691,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
@@ -784,247 +721,247 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="35.450000000000003" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="30"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="26"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="I4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A9" s="14">
         <v>5</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A10" s="14">
         <v>6</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A11" s="14">
         <v>7</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="29" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A12" s="14">
         <v>8</v>
       </c>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="7" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A13" s="14">
         <v>9</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A14" s="14">
         <v>10</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A6" s="13">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A7" s="13">
-        <v>3</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A8" s="13">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="7" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="17" spans="2:3" ht="24.2" customHeight="1">
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A9" s="13">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A10" s="13">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A11" s="13">
-        <v>7</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A12" s="13">
-        <v>8</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A13" s="13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A14" s="13">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="17" spans="2:3" ht="24.2" customHeight="1">
-      <c r="B17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
